--- a/NEW HR/DONE/BATHAN, ELVIRA.xlsx
+++ b/NEW HR/DONE/BATHAN, ELVIRA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
   <si>
     <t>PERIOD</t>
   </si>
@@ -326,6 +326,33 @@
   </si>
   <si>
     <t>6/12-16/2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>10/25,27/2023</t>
+  </si>
+  <si>
+    <t>11/22,23,24,28,29/2023</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>12/21,22,26-29/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t>11/10,30/2023</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1282,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1263,7 +1290,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K102" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K103" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1622,12 +1649,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K102"/>
+  <dimension ref="A2:K103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
+      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,7 +1824,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1807,7 +1834,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>57.5</v>
+        <v>58</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3495,13 +3522,15 @@
         <v>45170</v>
       </c>
       <c r="B89" s="21"/>
-      <c r="C89" s="14"/>
+      <c r="C89" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="42"/>
       <c r="E89" s="10"/>
       <c r="F89" s="21"/>
-      <c r="G89" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="42"/>
       <c r="I89" s="10"/>
@@ -3512,23 +3541,33 @@
       <c r="A90" s="43">
         <v>45200</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="14"/>
+      <c r="B90" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="42"/>
       <c r="E90" s="10"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="42"/>
       <c r="I90" s="10"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="K90" s="21" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
-      <c r="B91" s="21"/>
+      <c r="A91" s="43">
+        <v>45231</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="C91" s="14"/>
       <c r="D91" s="42"/>
       <c r="E91" s="10"/>
@@ -3537,13 +3576,19 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="42"/>
+      <c r="H91" s="42">
+        <v>2</v>
+      </c>
       <c r="I91" s="10"/>
       <c r="J91" s="12"/>
-      <c r="K91" s="21"/>
+      <c r="K91" s="21" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
+      <c r="A92" s="43">
+        <v>45261</v>
+      </c>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
       <c r="D92" s="42"/>
@@ -3559,12 +3604,16 @@
       <c r="K92" s="21"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="43"/>
-      <c r="B93" s="21"/>
+      <c r="A93" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="12"/>
       <c r="C93" s="14"/>
-      <c r="D93" s="42"/>
+      <c r="D93" s="12"/>
       <c r="E93" s="10"/>
-      <c r="F93" s="21"/>
+      <c r="F93" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="G93" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
@@ -3575,7 +3624,9 @@
       <c r="K93" s="21"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="43"/>
+      <c r="A94" s="43">
+        <v>45292</v>
+      </c>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
       <c r="D94" s="42"/>
@@ -3591,7 +3642,9 @@
       <c r="K94" s="21"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="43"/>
+      <c r="A95" s="43">
+        <v>45323</v>
+      </c>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
       <c r="D95" s="42"/>
@@ -3607,7 +3660,9 @@
       <c r="K95" s="21"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="43"/>
+      <c r="A96" s="43">
+        <v>45352</v>
+      </c>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
       <c r="D96" s="42"/>
@@ -3623,7 +3678,9 @@
       <c r="K96" s="21"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="43"/>
+      <c r="A97" s="43">
+        <v>45383</v>
+      </c>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
       <c r="D97" s="42"/>
@@ -3639,7 +3696,9 @@
       <c r="K97" s="21"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
+      <c r="A98" s="43">
+        <v>45413</v>
+      </c>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
       <c r="D98" s="42"/>
@@ -3655,7 +3714,9 @@
       <c r="K98" s="21"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="43"/>
+      <c r="A99" s="43">
+        <v>45444</v>
+      </c>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
       <c r="D99" s="42"/>
@@ -3671,7 +3732,9 @@
       <c r="K99" s="21"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="43"/>
+      <c r="A100" s="43">
+        <v>45474</v>
+      </c>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
       <c r="D100" s="42"/>
@@ -3687,7 +3750,9 @@
       <c r="K100" s="21"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="43"/>
+      <c r="A101" s="43">
+        <v>45505</v>
+      </c>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
       <c r="D101" s="42"/>
@@ -3703,20 +3768,40 @@
       <c r="K101" s="21"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="44"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="46"/>
+      <c r="A102" s="43">
+        <v>45536</v>
+      </c>
+      <c r="B102" s="21"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="42"/>
       <c r="E102" s="10"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="45" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="46"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="42"/>
       <c r="I102" s="10"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="16"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="21"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="43">
+        <v>45566</v>
+      </c>
+      <c r="B103" s="16"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="45" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="46"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3765,10 +3850,10 @@
   </sheetPr>
   <dimension ref="A2:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4245" topLeftCell="A24" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3938,7 +4023,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>13.625</v>
+        <v>0.625</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -4524,10 +4609,16 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="43">
+        <v>45200</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="42"/>
+      <c r="D36" s="42">
+        <v>1</v>
+      </c>
       <c r="E36" s="10"/>
       <c r="F36" s="21"/>
       <c r="G36" s="14" t="str">
@@ -4537,13 +4628,19 @@
       <c r="H36" s="42"/>
       <c r="I36" s="10"/>
       <c r="J36" s="12"/>
-      <c r="K36" s="50"/>
+      <c r="K36" s="50">
+        <v>45233</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
-      <c r="B37" s="21"/>
+      <c r="B37" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="C37" s="14"/>
-      <c r="D37" s="42"/>
+      <c r="D37" s="42">
+        <v>1</v>
+      </c>
       <c r="E37" s="10"/>
       <c r="F37" s="21"/>
       <c r="G37" s="14" t="str">
@@ -4553,13 +4650,21 @@
       <c r="H37" s="42"/>
       <c r="I37" s="10"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="21"/>
+      <c r="K37" s="50">
+        <v>45230</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="43">
+        <v>45231</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>79</v>
+      </c>
       <c r="C38" s="14"/>
-      <c r="D38" s="42"/>
+      <c r="D38" s="42">
+        <v>5</v>
+      </c>
       <c r="E38" s="10"/>
       <c r="F38" s="21"/>
       <c r="G38" s="14" t="str">
@@ -4569,13 +4674,19 @@
       <c r="H38" s="42"/>
       <c r="I38" s="10"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="21"/>
+      <c r="K38" s="21" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
-      <c r="B39" s="21"/>
+      <c r="B39" s="21" t="s">
+        <v>99</v>
+      </c>
       <c r="C39" s="14"/>
-      <c r="D39" s="42"/>
+      <c r="D39" s="42">
+        <v>6</v>
+      </c>
       <c r="E39" s="10"/>
       <c r="F39" s="21"/>
       <c r="G39" s="14" t="str">
@@ -4585,7 +4696,9 @@
       <c r="H39" s="42"/>
       <c r="I39" s="10"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="21"/>
+      <c r="K39" s="21" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="43"/>
